--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Rtn4-Rtn4r.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.74808266666667</v>
+        <v>48.46865866666667</v>
       </c>
       <c r="H2">
-        <v>155.244248</v>
+        <v>145.405976</v>
       </c>
       <c r="I2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="J2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,7 +558,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N2">
         <v>0.221628</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>3.822941355082667</v>
+        <v>3.580670627658667</v>
       </c>
       <c r="R2">
-        <v>34.406472195744</v>
+        <v>32.226035648928</v>
       </c>
       <c r="S2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
       <c r="T2">
-        <v>0.1468432527076591</v>
+        <v>0.1554430998624896</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>193.575878</v>
       </c>
       <c r="I3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="J3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,7 +620,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N3">
         <v>0.221628</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>4.766870521042667</v>
+        <v>4.766870521042666</v>
       </c>
       <c r="R3">
         <v>42.901834689384</v>
       </c>
       <c r="S3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
       <c r="T3">
-        <v>0.1831005782015253</v>
+        <v>0.20693808715897</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>102.0393243333333</v>
+        <v>75.47903666666667</v>
       </c>
       <c r="H4">
-        <v>306.117973</v>
+        <v>226.43711</v>
       </c>
       <c r="I4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="J4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,7 +682,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N4">
         <v>0.221628</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>7.538257124449335</v>
+        <v>5.576089312786667</v>
       </c>
       <c r="R4">
-        <v>67.844314120044</v>
+        <v>50.18480381508</v>
       </c>
       <c r="S4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
       <c r="T4">
-        <v>0.2895524919389952</v>
+        <v>0.2420676733554854</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>49.64042033333334</v>
+        <v>51.18999233333333</v>
       </c>
       <c r="H5">
-        <v>148.921261</v>
+        <v>153.569977</v>
       </c>
       <c r="I5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="J5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N5">
         <v>0.221628</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>3.667235692545334</v>
+        <v>3.781711873617333</v>
       </c>
       <c r="R5">
-        <v>33.005121232908</v>
+        <v>34.03540686255599</v>
       </c>
       <c r="S5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
       <c r="T5">
-        <v>0.1408624322272234</v>
+        <v>0.164170647777855</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>84.450424</v>
+        <v>72.14667033333333</v>
       </c>
       <c r="H6">
-        <v>253.351272</v>
+        <v>216.440011</v>
       </c>
       <c r="I6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="J6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,7 +806,7 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.07387600000000001</v>
+        <v>0.073876</v>
       </c>
       <c r="N6">
         <v>0.221628</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>6.238859523424001</v>
+        <v>5.329907417545333</v>
       </c>
       <c r="R6">
-        <v>56.149735710816</v>
+        <v>47.969166757908</v>
       </c>
       <c r="S6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
       <c r="T6">
-        <v>0.239641244924597</v>
+        <v>0.2313804918452</v>
       </c>
     </row>
   </sheetData>
